--- a/data/pca/factorExposure/factorExposure_2016-09-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.007936282364731387</v>
+        <v>-0.01347383597169119</v>
       </c>
       <c r="C2">
-        <v>0.05335083443861944</v>
+        <v>0.04305568516063311</v>
       </c>
       <c r="D2">
-        <v>0.03455923244844208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06659402678099233</v>
+      </c>
+      <c r="E2">
+        <v>0.05256728363857717</v>
+      </c>
+      <c r="F2">
+        <v>-0.08454519698516597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05641183617159764</v>
+        <v>-0.03229379257459615</v>
       </c>
       <c r="C3">
-        <v>0.1000298436164272</v>
+        <v>0.08053508318322566</v>
       </c>
       <c r="D3">
-        <v>0.06554106004189789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09573239957037832</v>
+      </c>
+      <c r="E3">
+        <v>0.06208969206365877</v>
+      </c>
+      <c r="F3">
+        <v>-0.01551993306088705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06083404852026181</v>
+        <v>-0.05731987137210712</v>
       </c>
       <c r="C4">
-        <v>0.05906249274129413</v>
+        <v>0.06570710577345834</v>
       </c>
       <c r="D4">
-        <v>0.02692341905287454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06152350162346308</v>
+      </c>
+      <c r="E4">
+        <v>0.05109579785108449</v>
+      </c>
+      <c r="F4">
+        <v>-0.08686749253340803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03399782823166042</v>
+        <v>-0.03368091347962279</v>
       </c>
       <c r="C6">
-        <v>0.03869101777607063</v>
+        <v>0.03544314842181936</v>
       </c>
       <c r="D6">
-        <v>0.03069527343819307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07010944213619215</v>
+      </c>
+      <c r="E6">
+        <v>0.05923034238007268</v>
+      </c>
+      <c r="F6">
+        <v>-0.07170929848913483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01780221486346354</v>
+        <v>-0.01921440876034636</v>
       </c>
       <c r="C7">
-        <v>0.03765431422292181</v>
+        <v>0.03679445945959709</v>
       </c>
       <c r="D7">
-        <v>-0.002671113988448804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03954330249128467</v>
+      </c>
+      <c r="E7">
+        <v>0.03246079845848158</v>
+      </c>
+      <c r="F7">
+        <v>-0.1081542015455405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001823621617885364</v>
+        <v>-0.003747203941414633</v>
       </c>
       <c r="C8">
-        <v>0.02259203600512935</v>
+        <v>0.02785404920350291</v>
       </c>
       <c r="D8">
-        <v>0.0325972729552277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0365953731174705</v>
+      </c>
+      <c r="E8">
+        <v>0.04153687889222384</v>
+      </c>
+      <c r="F8">
+        <v>-0.05230303587003068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03133961825216917</v>
+        <v>-0.03674770452262219</v>
       </c>
       <c r="C9">
-        <v>0.04180928847428951</v>
+        <v>0.05177681943670088</v>
       </c>
       <c r="D9">
-        <v>0.01531648187701431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04742529902780668</v>
+      </c>
+      <c r="E9">
+        <v>0.04469854711140935</v>
+      </c>
+      <c r="F9">
+        <v>-0.09178250117060137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07353551133613181</v>
+        <v>-0.1015418083122812</v>
       </c>
       <c r="C10">
-        <v>-0.1934292924128273</v>
+        <v>-0.1916643655707087</v>
       </c>
       <c r="D10">
-        <v>0.007638846944181316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0001669366362085349</v>
+      </c>
+      <c r="E10">
+        <v>0.04610156642644182</v>
+      </c>
+      <c r="F10">
+        <v>-0.03932255583357664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03603308080009326</v>
+        <v>-0.03528476639685303</v>
       </c>
       <c r="C11">
-        <v>0.05475688707451867</v>
+        <v>0.05118952817200781</v>
       </c>
       <c r="D11">
-        <v>0.00699325300624774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.0349315992135684</v>
+      </c>
+      <c r="E11">
+        <v>0.005406314287495496</v>
+      </c>
+      <c r="F11">
+        <v>-0.06503719196464373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03332897523581793</v>
+        <v>-0.0358431372523434</v>
       </c>
       <c r="C12">
-        <v>0.04711791322722478</v>
+        <v>0.04735066673672961</v>
       </c>
       <c r="D12">
-        <v>0.0033206689696769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02656894788309225</v>
+      </c>
+      <c r="E12">
+        <v>0.01458038377721026</v>
+      </c>
+      <c r="F12">
+        <v>-0.06663614422080871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01300728691748699</v>
+        <v>-0.01211282005483012</v>
       </c>
       <c r="C13">
-        <v>0.04089860127381245</v>
+        <v>0.04017001758419914</v>
       </c>
       <c r="D13">
-        <v>0.02010915123498055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06597860218163469</v>
+      </c>
+      <c r="E13">
+        <v>0.06322442522991932</v>
+      </c>
+      <c r="F13">
+        <v>-0.1144650470335006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006051617355463113</v>
+        <v>-0.005541195342109168</v>
       </c>
       <c r="C14">
-        <v>0.03178690635197789</v>
+        <v>0.02955083029906693</v>
       </c>
       <c r="D14">
-        <v>-0.01487033688518493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03055634814189712</v>
+      </c>
+      <c r="E14">
+        <v>0.02787170275768409</v>
+      </c>
+      <c r="F14">
+        <v>-0.09818185595279325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001380253560754455</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002990170471496969</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003619379317742961</v>
+      </c>
+      <c r="E15">
+        <v>0.0002908501295502814</v>
+      </c>
+      <c r="F15">
+        <v>-0.002662031040574419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03275967239377799</v>
+        <v>-0.03285985358083746</v>
       </c>
       <c r="C16">
-        <v>0.0428347545075504</v>
+        <v>0.04550604759022055</v>
       </c>
       <c r="D16">
-        <v>0.008431141916975568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03003276699694154</v>
+      </c>
+      <c r="E16">
+        <v>0.02000786723909072</v>
+      </c>
+      <c r="F16">
+        <v>-0.06901295769250593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02300166338331551</v>
+        <v>-0.01627698879123338</v>
       </c>
       <c r="C19">
-        <v>0.05829342026814369</v>
+        <v>0.04980899648709856</v>
       </c>
       <c r="D19">
-        <v>0.07472402377142147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1008818674470116</v>
+      </c>
+      <c r="E19">
+        <v>0.07998427110953117</v>
+      </c>
+      <c r="F19">
+        <v>-0.09309075738981379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01336184965126498</v>
+        <v>-0.01352853446136392</v>
       </c>
       <c r="C20">
-        <v>0.04235659765675339</v>
+        <v>0.04023474962817523</v>
       </c>
       <c r="D20">
-        <v>0.02036074571050342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04345838053882668</v>
+      </c>
+      <c r="E20">
+        <v>0.05778411507538336</v>
+      </c>
+      <c r="F20">
+        <v>-0.09007040964200178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009048423262765174</v>
+        <v>-0.008201109257460211</v>
       </c>
       <c r="C21">
-        <v>0.04844943715910034</v>
+        <v>0.04511532455532861</v>
       </c>
       <c r="D21">
-        <v>0.03620427710433874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07301591670380744</v>
+      </c>
+      <c r="E21">
+        <v>0.07495469339874153</v>
+      </c>
+      <c r="F21">
+        <v>-0.1343119773050168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0006909408686857666</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02266986057388118</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03509357387888924</v>
+      </c>
+      <c r="E22">
+        <v>0.01758683556907211</v>
+      </c>
+      <c r="F22">
+        <v>-0.01808558841101373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0007576561133484233</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02280011143868824</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03478557234977024</v>
+      </c>
+      <c r="E23">
+        <v>0.01788024205264619</v>
+      </c>
+      <c r="F23">
+        <v>-0.01796004709916489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02736279493890775</v>
+        <v>-0.03215017003228179</v>
       </c>
       <c r="C24">
-        <v>0.04800813320034256</v>
+        <v>0.05328867202813343</v>
       </c>
       <c r="D24">
-        <v>0.004276129060815819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0281167825767795</v>
+      </c>
+      <c r="E24">
+        <v>0.01764362392949104</v>
+      </c>
+      <c r="F24">
+        <v>-0.0768169326647882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04173614960023764</v>
+        <v>-0.04218934184797071</v>
       </c>
       <c r="C25">
-        <v>0.05971726944137241</v>
+        <v>0.05777778780117584</v>
       </c>
       <c r="D25">
-        <v>-0.005310406011954197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02620450802788462</v>
+      </c>
+      <c r="E25">
+        <v>0.01237515590092237</v>
+      </c>
+      <c r="F25">
+        <v>-0.079132535844836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01204863933895143</v>
+        <v>-0.01360608604738728</v>
       </c>
       <c r="C26">
-        <v>0.01698542702615069</v>
+        <v>0.01609754750395529</v>
       </c>
       <c r="D26">
-        <v>0.001061599251709234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02764205736622337</v>
+      </c>
+      <c r="E26">
+        <v>0.0296046640604199</v>
+      </c>
+      <c r="F26">
+        <v>-0.07360117470345426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08679580674260569</v>
+        <v>-0.1362628906936378</v>
       </c>
       <c r="C28">
-        <v>-0.2260156689554506</v>
+        <v>-0.2416100986182912</v>
       </c>
       <c r="D28">
-        <v>0.003845688486746579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01591959826713819</v>
+      </c>
+      <c r="E28">
+        <v>0.04805073190313109</v>
+      </c>
+      <c r="F28">
+        <v>-0.05270324495600037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008661442343164709</v>
+        <v>-0.006484419643604879</v>
       </c>
       <c r="C29">
-        <v>0.02581010539531671</v>
+        <v>0.02560466681021676</v>
       </c>
       <c r="D29">
-        <v>-0.01484248185354038</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02482434827901114</v>
+      </c>
+      <c r="E29">
+        <v>0.03021597982626967</v>
+      </c>
+      <c r="F29">
+        <v>-0.09031885872920369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.04853340950456787</v>
+        <v>-0.04079146444189262</v>
       </c>
       <c r="C30">
-        <v>0.05760762789161197</v>
+        <v>0.06415521935032747</v>
       </c>
       <c r="D30">
-        <v>0.04965751475673798</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1095413970662098</v>
+      </c>
+      <c r="E30">
+        <v>0.04093888100184948</v>
+      </c>
+      <c r="F30">
+        <v>-0.1025435034012234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04900058270435814</v>
+        <v>-0.054500371666979</v>
       </c>
       <c r="C31">
-        <v>0.0329465438399013</v>
+        <v>0.05372538439121786</v>
       </c>
       <c r="D31">
-        <v>-0.009071889202544486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006245729268577304</v>
+      </c>
+      <c r="E31">
+        <v>0.04945193101255041</v>
+      </c>
+      <c r="F31">
+        <v>-0.08145332140717267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006651090949707631</v>
+        <v>-0.004485756284892072</v>
       </c>
       <c r="C32">
-        <v>0.04612234475760917</v>
+        <v>0.03282194140520301</v>
       </c>
       <c r="D32">
-        <v>0.02324418190384723</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05124622779122916</v>
+      </c>
+      <c r="E32">
+        <v>0.02345440821305549</v>
+      </c>
+      <c r="F32">
+        <v>-0.07340939229730682</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02697024439826872</v>
+        <v>-0.02424977452875227</v>
       </c>
       <c r="C33">
-        <v>0.05806163576857629</v>
+        <v>0.05370815968385335</v>
       </c>
       <c r="D33">
-        <v>0.03423601625210036</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08449678715371889</v>
+      </c>
+      <c r="E33">
+        <v>0.05121617597596059</v>
+      </c>
+      <c r="F33">
+        <v>-0.1280372690664346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04353277717166481</v>
+        <v>-0.04039297549712348</v>
       </c>
       <c r="C34">
-        <v>0.06024022357768125</v>
+        <v>0.06345708017722047</v>
       </c>
       <c r="D34">
-        <v>-0.002143504724876202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03520688538030996</v>
+      </c>
+      <c r="E34">
+        <v>-0.006350592593621726</v>
+      </c>
+      <c r="F34">
+        <v>-0.0756937001048919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008485677911330657</v>
+        <v>-0.01379180821816554</v>
       </c>
       <c r="C36">
-        <v>0.01363638953468699</v>
+        <v>0.01175697430448793</v>
       </c>
       <c r="D36">
-        <v>0.002134588172940886</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02986535457851513</v>
+      </c>
+      <c r="E36">
+        <v>0.03632796319018153</v>
+      </c>
+      <c r="F36">
+        <v>-0.08205037721411362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03096621722704085</v>
+        <v>-0.02509262740844705</v>
       </c>
       <c r="C38">
-        <v>0.0291636607233005</v>
+        <v>0.02492213198305338</v>
       </c>
       <c r="D38">
-        <v>0.002592260183172658</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02858472947119457</v>
+      </c>
+      <c r="E38">
+        <v>0.03537759054132333</v>
+      </c>
+      <c r="F38">
+        <v>-0.0678306216406063</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03901491214747072</v>
+        <v>-0.03809942793739036</v>
       </c>
       <c r="C39">
-        <v>0.07041873376226489</v>
+        <v>0.06829021964479917</v>
       </c>
       <c r="D39">
-        <v>0.02247532625401246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05386507968861302</v>
+      </c>
+      <c r="E39">
+        <v>0.01881217476829734</v>
+      </c>
+      <c r="F39">
+        <v>-0.09099430029178654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01638515156616554</v>
+        <v>-0.01685292106628539</v>
       </c>
       <c r="C40">
-        <v>0.03103009352712194</v>
+        <v>0.03710678212882793</v>
       </c>
       <c r="D40">
-        <v>0.03640256021858113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04362760373126629</v>
+      </c>
+      <c r="E40">
+        <v>0.07430121967162565</v>
+      </c>
+      <c r="F40">
+        <v>-0.08907869034099111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008703822556401158</v>
+        <v>-0.017933016073888</v>
       </c>
       <c r="C41">
-        <v>0.007138883524327426</v>
+        <v>0.006124596291168794</v>
       </c>
       <c r="D41">
-        <v>0.001746729387679791</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01866630939533795</v>
+      </c>
+      <c r="E41">
+        <v>0.03857812763175154</v>
+      </c>
+      <c r="F41">
+        <v>-0.07071491369386333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.002592798616652367</v>
+        <v>-0.001711746434559064</v>
       </c>
       <c r="C42">
-        <v>0.005163279725897214</v>
+        <v>0.002829081645923146</v>
       </c>
       <c r="D42">
-        <v>0.008891437920980455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001456667785776967</v>
+      </c>
+      <c r="E42">
+        <v>0.008545909501655685</v>
+      </c>
+      <c r="F42">
+        <v>0.005567035730788083</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03124664989895874</v>
+        <v>-0.0293609305569326</v>
       </c>
       <c r="C43">
-        <v>0.02248720516931955</v>
+        <v>0.0211002726786324</v>
       </c>
       <c r="D43">
-        <v>0.01291201069977724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0430414310647203</v>
+      </c>
+      <c r="E43">
+        <v>0.04423464087818631</v>
+      </c>
+      <c r="F43">
+        <v>-0.08429768500559742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01505596619492831</v>
+        <v>-0.01439468630668148</v>
       </c>
       <c r="C44">
-        <v>0.05661956201417831</v>
+        <v>0.0516203700222859</v>
       </c>
       <c r="D44">
-        <v>0.01706303193768183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04187055656046762</v>
+      </c>
+      <c r="E44">
+        <v>0.0581731056724494</v>
+      </c>
+      <c r="F44">
+        <v>-0.09075272860412061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0001250469012803856</v>
+        <v>-0.007474032173768802</v>
       </c>
       <c r="C46">
-        <v>0.02284493120555735</v>
+        <v>0.02502864480806767</v>
       </c>
       <c r="D46">
-        <v>-0.01870070317056142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01483150906677056</v>
+      </c>
+      <c r="E46">
+        <v>0.03597120131826407</v>
+      </c>
+      <c r="F46">
+        <v>-0.1038805716145289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07986861280855583</v>
+        <v>-0.08573707983290794</v>
       </c>
       <c r="C47">
-        <v>0.07147778434261219</v>
+        <v>0.08081916569103598</v>
       </c>
       <c r="D47">
-        <v>-0.005528220244064606</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01486455105751154</v>
+      </c>
+      <c r="E47">
+        <v>0.05513727379557674</v>
+      </c>
+      <c r="F47">
+        <v>-0.07805923951028178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01776769613630741</v>
+        <v>-0.01577196267119182</v>
       </c>
       <c r="C48">
-        <v>0.01205583018878689</v>
+        <v>0.01717857052866443</v>
       </c>
       <c r="D48">
-        <v>-0.005659907557424879</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02031431439414031</v>
+      </c>
+      <c r="E48">
+        <v>0.04663523855299631</v>
+      </c>
+      <c r="F48">
+        <v>-0.09606239253325558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08718182765678856</v>
+        <v>-0.07248538063032121</v>
       </c>
       <c r="C50">
-        <v>0.06847955438881073</v>
+        <v>0.07039145066408296</v>
       </c>
       <c r="D50">
-        <v>-0.01478637767365348</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002809311074925401</v>
+      </c>
+      <c r="E50">
+        <v>0.05280482189583791</v>
+      </c>
+      <c r="F50">
+        <v>-0.06881138648689292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01050261306199766</v>
+        <v>-0.0104269500316028</v>
       </c>
       <c r="C51">
-        <v>0.04398477621337771</v>
+        <v>0.0332382776889795</v>
       </c>
       <c r="D51">
-        <v>0.008412101556158888</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05050560028141909</v>
+      </c>
+      <c r="E51">
+        <v>0.02188904043697863</v>
+      </c>
+      <c r="F51">
+        <v>-0.08587335746225651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08165055231527608</v>
+        <v>-0.09172700992983054</v>
       </c>
       <c r="C53">
-        <v>0.07270656713420454</v>
+        <v>0.08840610453657236</v>
       </c>
       <c r="D53">
-        <v>-0.02409330087497877</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03706899846780441</v>
+      </c>
+      <c r="E53">
+        <v>0.05422020692703889</v>
+      </c>
+      <c r="F53">
+        <v>-0.08787014902447517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03090853500107445</v>
+        <v>-0.02730458463192796</v>
       </c>
       <c r="C54">
-        <v>0.02179866158103057</v>
+        <v>0.02662045879668634</v>
       </c>
       <c r="D54">
-        <v>0.002136832049191894</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03377737792204401</v>
+      </c>
+      <c r="E54">
+        <v>0.04027308178967628</v>
+      </c>
+      <c r="F54">
+        <v>-0.09383091410971069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07170220072143556</v>
+        <v>-0.08269111354407253</v>
       </c>
       <c r="C55">
-        <v>0.06475805322298167</v>
+        <v>0.07194929529757944</v>
       </c>
       <c r="D55">
-        <v>-0.02770385070431914</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04470033015587077</v>
+      </c>
+      <c r="E55">
+        <v>0.04448160509278267</v>
+      </c>
+      <c r="F55">
+        <v>-0.06383977533080801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1480211135654753</v>
+        <v>-0.1444201419200213</v>
       </c>
       <c r="C56">
-        <v>0.09194340501862963</v>
+        <v>0.1065686881537454</v>
       </c>
       <c r="D56">
-        <v>-0.03046987909907359</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04811752432020135</v>
+      </c>
+      <c r="E56">
+        <v>0.04888992140301734</v>
+      </c>
+      <c r="F56">
+        <v>-0.05012579728103778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001473172004443687</v>
+        <v>-0.0005018722160494897</v>
       </c>
       <c r="C57">
-        <v>0.003780790824764814</v>
+        <v>0.002159618105043512</v>
       </c>
       <c r="D57">
-        <v>0.01798331465932933</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01616927073962857</v>
+      </c>
+      <c r="E57">
+        <v>0.007079596968411034</v>
+      </c>
+      <c r="F57">
+        <v>-0.0102162686103818</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07219814362991875</v>
+        <v>-0.0304951423358536</v>
       </c>
       <c r="C58">
-        <v>0.02627805415440977</v>
+        <v>0.03945870935401132</v>
       </c>
       <c r="D58">
-        <v>0.9396274585799833</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4933026630000457</v>
+      </c>
+      <c r="E58">
+        <v>0.6732631806148429</v>
+      </c>
+      <c r="F58">
+        <v>0.4707938086822359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1363808039203604</v>
+        <v>-0.1485495967868773</v>
       </c>
       <c r="C59">
-        <v>-0.2064019850214137</v>
+        <v>-0.1859952379584879</v>
       </c>
       <c r="D59">
-        <v>0.01736359006969953</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0310949829474932</v>
+      </c>
+      <c r="E59">
+        <v>0.02521049788037363</v>
+      </c>
+      <c r="F59">
+        <v>-0.02017554178255473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3125879569331486</v>
+        <v>-0.2820102981644832</v>
       </c>
       <c r="C60">
-        <v>0.09304809154555917</v>
+        <v>0.09896141484751664</v>
       </c>
       <c r="D60">
-        <v>0.002659206687803659</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2008001562165191</v>
+      </c>
+      <c r="E60">
+        <v>-0.2807559783024982</v>
+      </c>
+      <c r="F60">
+        <v>0.1118452894071288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03633702251691876</v>
+        <v>-0.03976145932196599</v>
       </c>
       <c r="C61">
-        <v>0.0640671864481101</v>
+        <v>0.06211313734239096</v>
       </c>
       <c r="D61">
-        <v>0.01209127631696205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04809672043060109</v>
+      </c>
+      <c r="E61">
+        <v>0.02280971736482193</v>
+      </c>
+      <c r="F61">
+        <v>-0.08105926451831831</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01380716040484798</v>
+        <v>-0.01474814108510484</v>
       </c>
       <c r="C63">
-        <v>0.03583508507250334</v>
+        <v>0.03193271976603814</v>
       </c>
       <c r="D63">
-        <v>8.529090259981651e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02465236349399188</v>
+      </c>
+      <c r="E63">
+        <v>0.03894040082053155</v>
+      </c>
+      <c r="F63">
+        <v>-0.07506146991971781</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05189115874834914</v>
+        <v>-0.05557774028159977</v>
       </c>
       <c r="C64">
-        <v>0.03500886545283034</v>
+        <v>0.05465545123158312</v>
       </c>
       <c r="D64">
-        <v>-0.006293119300388996</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008560596056303469</v>
+      </c>
+      <c r="E64">
+        <v>0.0224851381083453</v>
+      </c>
+      <c r="F64">
+        <v>-0.0885901439960704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09177153819277327</v>
+        <v>-0.06681117122161701</v>
       </c>
       <c r="C65">
-        <v>0.04087910636483123</v>
+        <v>0.0386832168162542</v>
       </c>
       <c r="D65">
-        <v>0.03758423107336079</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08698079175209253</v>
+      </c>
+      <c r="E65">
+        <v>0.03198401172023631</v>
+      </c>
+      <c r="F65">
+        <v>-0.02362662047245809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.05939211085500778</v>
+        <v>-0.05013434490363312</v>
       </c>
       <c r="C66">
-        <v>0.1044562444929503</v>
+        <v>0.09150385434143507</v>
       </c>
       <c r="D66">
-        <v>0.03338627026817174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08081618595929001</v>
+      </c>
+      <c r="E66">
+        <v>0.02050090344610895</v>
+      </c>
+      <c r="F66">
+        <v>-0.09189613100370625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05436311595400411</v>
+        <v>-0.04763439855734448</v>
       </c>
       <c r="C67">
-        <v>0.03408920667276158</v>
+        <v>0.03077131497016877</v>
       </c>
       <c r="D67">
-        <v>-0.003422753070123819</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01485687983917738</v>
+      </c>
+      <c r="E67">
+        <v>0.01891103116473923</v>
+      </c>
+      <c r="F67">
+        <v>-0.05332856849378652</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1132635309460634</v>
+        <v>-0.1536158901673574</v>
       </c>
       <c r="C68">
-        <v>-0.2883601376181126</v>
+        <v>-0.2500865061334098</v>
       </c>
       <c r="D68">
-        <v>-0.002219786636156006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01863496436337262</v>
+      </c>
+      <c r="E68">
+        <v>0.04219876720562003</v>
+      </c>
+      <c r="F68">
+        <v>-0.01719013502660168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08515565335891612</v>
+        <v>-0.08686020989857557</v>
       </c>
       <c r="C69">
-        <v>0.06743145159853357</v>
+        <v>0.08667117314782891</v>
       </c>
       <c r="D69">
-        <v>-0.02995152541880149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008555926387570339</v>
+      </c>
+      <c r="E69">
+        <v>0.03255017929435385</v>
+      </c>
+      <c r="F69">
+        <v>-0.09785296411710112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1185383716138983</v>
+        <v>-0.1458879504052011</v>
       </c>
       <c r="C71">
-        <v>-0.2505323595872988</v>
+        <v>-0.2315160808178008</v>
       </c>
       <c r="D71">
-        <v>0.0265821701488513</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01505223956032781</v>
+      </c>
+      <c r="E71">
+        <v>0.06021630714034618</v>
+      </c>
+      <c r="F71">
+        <v>-0.05508787418401202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08584111248127452</v>
+        <v>-0.09577718302291949</v>
       </c>
       <c r="C72">
-        <v>0.04945753575664887</v>
+        <v>0.05769253802525701</v>
       </c>
       <c r="D72">
-        <v>-0.01104036236470496</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02071160108999997</v>
+      </c>
+      <c r="E72">
+        <v>0.01067070800589184</v>
+      </c>
+      <c r="F72">
+        <v>-0.08201421886574786</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4380144740787512</v>
+        <v>-0.3459803220128572</v>
       </c>
       <c r="C73">
-        <v>0.06507058015365361</v>
+        <v>0.07977835084471285</v>
       </c>
       <c r="D73">
-        <v>0.07636290844310779</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4229839172434817</v>
+      </c>
+      <c r="E73">
+        <v>-0.494546747411434</v>
+      </c>
+      <c r="F73">
+        <v>0.2902249529136824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1121460523718502</v>
+        <v>-0.1100489649882912</v>
       </c>
       <c r="C74">
-        <v>0.1097411645159653</v>
+        <v>0.1021454509810574</v>
       </c>
       <c r="D74">
-        <v>-0.004913128479230596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0277160627042631</v>
+      </c>
+      <c r="E74">
+        <v>0.06384668771439218</v>
+      </c>
+      <c r="F74">
+        <v>-0.05514144609886922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2490347252933013</v>
+        <v>-0.2546599203040277</v>
       </c>
       <c r="C75">
-        <v>0.120826570663825</v>
+        <v>0.1410134593864874</v>
       </c>
       <c r="D75">
-        <v>-0.04508522074980274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1285587575898016</v>
+      </c>
+      <c r="E75">
+        <v>0.07568716980809594</v>
+      </c>
+      <c r="F75">
+        <v>-0.01759601151570214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1119602953891834</v>
+        <v>-0.1271487606251344</v>
       </c>
       <c r="C76">
-        <v>0.09956704083810194</v>
+        <v>0.1057259564626135</v>
       </c>
       <c r="D76">
-        <v>-0.02789699556583057</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05776839711263412</v>
+      </c>
+      <c r="E76">
+        <v>0.06876817552089477</v>
+      </c>
+      <c r="F76">
+        <v>-0.06646526303746157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0772527446815027</v>
+        <v>-0.06133181417725802</v>
       </c>
       <c r="C77">
-        <v>0.05852871221806024</v>
+        <v>0.06790267103836045</v>
       </c>
       <c r="D77">
-        <v>0.05058024399511586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06544800539582918</v>
+      </c>
+      <c r="E77">
+        <v>0.06620272150506074</v>
+      </c>
+      <c r="F77">
+        <v>-0.1091152289761952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04402366748077557</v>
+        <v>-0.04326579228429827</v>
       </c>
       <c r="C78">
-        <v>0.04213979759877257</v>
+        <v>0.05388754480095351</v>
       </c>
       <c r="D78">
-        <v>0.01748878133656769</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0742731598074792</v>
+      </c>
+      <c r="E78">
+        <v>0.02284347353484723</v>
+      </c>
+      <c r="F78">
+        <v>-0.1053361853616739</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02299862717056616</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03957000656122807</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05816774762036252</v>
+      </c>
+      <c r="E79">
+        <v>0.05108276473958671</v>
+      </c>
+      <c r="F79">
+        <v>-0.03458031971023179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04395761340836888</v>
+        <v>-0.03329877318401518</v>
       </c>
       <c r="C80">
-        <v>0.05508680775468042</v>
+        <v>0.05429534664274632</v>
       </c>
       <c r="D80">
-        <v>0.02628622030804988</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0478066540764331</v>
+      </c>
+      <c r="E80">
+        <v>0.007818100204623046</v>
+      </c>
+      <c r="F80">
+        <v>-0.03046371251975543</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1426137404099798</v>
+        <v>-0.1393017337395729</v>
       </c>
       <c r="C81">
-        <v>0.07740966093749972</v>
+        <v>0.09908747402443049</v>
       </c>
       <c r="D81">
-        <v>-0.02085577108678485</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09430156062572349</v>
+      </c>
+      <c r="E81">
+        <v>0.08291771191001154</v>
+      </c>
+      <c r="F81">
+        <v>-0.01999480339198883</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1262358215366845</v>
+        <v>-0.1945631228623103</v>
       </c>
       <c r="C82">
-        <v>0.05696266687320578</v>
+        <v>0.1400359786004836</v>
       </c>
       <c r="D82">
-        <v>-0.1132860000168493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2278642980886569</v>
+      </c>
+      <c r="E82">
+        <v>0.01776271439311413</v>
+      </c>
+      <c r="F82">
+        <v>-0.08393393140831401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.03173977316783717</v>
+        <v>-0.02660667710038874</v>
       </c>
       <c r="C83">
-        <v>0.01940046341418011</v>
+        <v>0.0405715815096078</v>
       </c>
       <c r="D83">
-        <v>0.01723377144917953</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0354584577732437</v>
+      </c>
+      <c r="E83">
+        <v>0.008689987026365248</v>
+      </c>
+      <c r="F83">
+        <v>-0.04663425565079642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2277152444303241</v>
+        <v>-0.2035564121833465</v>
       </c>
       <c r="C85">
-        <v>0.1103272105506659</v>
+        <v>0.1253801445351833</v>
       </c>
       <c r="D85">
-        <v>-0.0904653865065167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1042576227305817</v>
+      </c>
+      <c r="E85">
+        <v>0.006805100311767926</v>
+      </c>
+      <c r="F85">
+        <v>0.0187421653357186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.003205518173524516</v>
+        <v>-0.01226258662218071</v>
       </c>
       <c r="C86">
-        <v>0.024160590670357</v>
+        <v>0.0303809512357921</v>
       </c>
       <c r="D86">
-        <v>0.02841758239479963</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07377532174074743</v>
+      </c>
+      <c r="E86">
+        <v>0.04454742852432663</v>
+      </c>
+      <c r="F86">
+        <v>-0.1394175337077693</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01743607113678372</v>
+        <v>-0.02000286926425712</v>
       </c>
       <c r="C87">
-        <v>0.01756843522930513</v>
+        <v>0.02177157728480114</v>
       </c>
       <c r="D87">
-        <v>0.09031532718646804</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09377714992712932</v>
+      </c>
+      <c r="E87">
+        <v>0.08615738380252227</v>
+      </c>
+      <c r="F87">
+        <v>-0.09147168007641257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1022844092211885</v>
+        <v>-0.08982960828435467</v>
       </c>
       <c r="C88">
-        <v>0.07216020131042951</v>
+        <v>0.06418004262258863</v>
       </c>
       <c r="D88">
-        <v>-0.01668354756350329</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0122519598007301</v>
+      </c>
+      <c r="E88">
+        <v>0.03160162478127169</v>
+      </c>
+      <c r="F88">
+        <v>-0.06791396192451546</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1874941035490261</v>
+        <v>-0.2287063393214012</v>
       </c>
       <c r="C89">
-        <v>-0.3728492969762973</v>
+        <v>-0.3784492982512635</v>
       </c>
       <c r="D89">
-        <v>-0.02299198287685354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01319578978767533</v>
+      </c>
+      <c r="E89">
+        <v>0.04173282226770433</v>
+      </c>
+      <c r="F89">
+        <v>-0.09978342644961313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1760113405903219</v>
+        <v>-0.2055810160103666</v>
       </c>
       <c r="C90">
-        <v>-0.3409077808834356</v>
+        <v>-0.3126736475954524</v>
       </c>
       <c r="D90">
-        <v>-0.01065816396711468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01291057404077485</v>
+      </c>
+      <c r="E90">
+        <v>0.06657773272071087</v>
+      </c>
+      <c r="F90">
+        <v>-0.04784195678152554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1991169454584778</v>
+        <v>-0.1879494430929173</v>
       </c>
       <c r="C91">
-        <v>0.1150684354264086</v>
+        <v>0.1419000859441316</v>
       </c>
       <c r="D91">
-        <v>-0.0446820857161711</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1019036319912261</v>
+      </c>
+      <c r="E91">
+        <v>0.07187966837972128</v>
+      </c>
+      <c r="F91">
+        <v>-0.04028283037431538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1710951710157868</v>
+        <v>-0.1853331887776497</v>
       </c>
       <c r="C92">
-        <v>-0.2923025303565463</v>
+        <v>-0.2795082200356844</v>
       </c>
       <c r="D92">
-        <v>-0.009609944197118782</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003207355060417771</v>
+      </c>
+      <c r="E92">
+        <v>0.07100440829310986</v>
+      </c>
+      <c r="F92">
+        <v>-0.074079288637296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2015889219655528</v>
+        <v>-0.2292628131695218</v>
       </c>
       <c r="C93">
-        <v>-0.3380865114093458</v>
+        <v>-0.3177577061353459</v>
       </c>
       <c r="D93">
-        <v>0.001277612006823215</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0002704464622220929</v>
+      </c>
+      <c r="E93">
+        <v>0.05056448648809346</v>
+      </c>
+      <c r="F93">
+        <v>-0.04200776727297187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3197331816275576</v>
+        <v>-0.3396375432510015</v>
       </c>
       <c r="C94">
-        <v>0.1721380466275749</v>
+        <v>0.1931744774875048</v>
       </c>
       <c r="D94">
-        <v>-0.1877282221028135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4739656398655124</v>
+      </c>
+      <c r="E94">
+        <v>0.1491946151528605</v>
+      </c>
+      <c r="F94">
+        <v>0.4366162096080652</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09073922931199886</v>
+        <v>-0.08205823073247109</v>
       </c>
       <c r="C95">
-        <v>0.06723250963395087</v>
+        <v>0.07056966143297155</v>
       </c>
       <c r="D95">
-        <v>0.03337815764866755</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1524926970977451</v>
+      </c>
+      <c r="E95">
+        <v>-0.1311389542241495</v>
+      </c>
+      <c r="F95">
+        <v>-0.1812773302772167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1951708190512755</v>
+        <v>-0.1882312623056293</v>
       </c>
       <c r="C98">
-        <v>0.01358065161603249</v>
+        <v>0.0414183485458569</v>
       </c>
       <c r="D98">
-        <v>0.04533746855716747</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1738196841058289</v>
+      </c>
+      <c r="E98">
+        <v>-0.1596423357973632</v>
+      </c>
+      <c r="F98">
+        <v>0.03920224427795739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.008401949889643916</v>
+        <v>-0.006369481971118786</v>
       </c>
       <c r="C101">
-        <v>0.02595311583589191</v>
+        <v>0.02535890088247188</v>
       </c>
       <c r="D101">
-        <v>-0.01511658527420418</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0241633973921593</v>
+      </c>
+      <c r="E101">
+        <v>0.03069762873335462</v>
+      </c>
+      <c r="F101">
+        <v>-0.08984297357910546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1211050477519877</v>
+        <v>-0.122281449405203</v>
       </c>
       <c r="C102">
-        <v>0.07365720222959672</v>
+        <v>0.1013396566020516</v>
       </c>
       <c r="D102">
-        <v>-0.03048053499331261</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05152703448591112</v>
+      </c>
+      <c r="E102">
+        <v>-0.00792972010872829</v>
+      </c>
+      <c r="F102">
+        <v>-0.03873793440161274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
